--- a/public/uploads/product/template_import.xlsx
+++ b/public/uploads/product/template_import.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
